--- a/final_inv.xlsx
+++ b/final_inv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\prins-il\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F46A86-2247-4CE3-952A-41A92AA8AB5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107C9417-4880-40C2-8DAE-19281B1B30E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37365" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="254">
   <si>
     <t>food_name</t>
   </si>
@@ -79,9 +79,6 @@
     <t>אוכל יבש לכלבים בוגרים מגזע בינוני - גדול</t>
   </si>
   <si>
-    <t>אוכל לכלבים בוגרים מגזעים בינוניים וגדולים</t>
-  </si>
-  <si>
     <t>פרינס קרוק בייסיק אקסלנט הוא אוכל יבש לכלבים בוגרים מגזעים בינוניים וגדולים. אוכל זה מתאים גם לכלבים מסורסים,מעוקרים וכאלו עם נטייה להשמנה. אוכל זה מספק ארוחה מלאה הכוללת שמן סלמון, F.O.S, פרוביוטיקה, ומלחי שוסלר, תורם למערכת העיקול ותמוך בעצמות ובמפרקים. ארוחה מאוזנת אשר עוזרת לשמור על משקל בריא.</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>אוכל יבש לכלבים פעילים בוגרים מגזע קטן</t>
   </si>
   <si>
-    <t>אוכל לכלבים פעילים בוגרים מגזעים קטנים</t>
-  </si>
-  <si>
     <t>פרינס קרוק סופר מיני הוא אוכל יבש הנועד לכלבים פעילים אשר גדלים או בוגרים המוציאים הרבה אנרגיה. אוכל זה מספק ארוחה מלאה הכוללת שמן סלמון, אינולין, פרוביוטיקה, יוקה, חליטות צמחים ומלחי שוסלר, שומר על הכלב בכושר מצויין ותורם לעור ופרווה בריאה. חומצות השומן אשר נמצאות באוכל זה מספקות מספיק אנרגיה ובשביל כלבים פעילים ו/או כלבות הריוניות ומניקות. אוכל זה ישמור על הכלב שלך פעיל ובריא, בדיוק כמו שאתה מכיר אותו!</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
     <t>אוכל יבש לכלבים מבוגרים מגזע קטן</t>
   </si>
   <si>
-    <t>אוכל יבש לכלבים מבוגרים מגזעים קטנים</t>
-  </si>
-  <si>
     <t>פרינס קרוק סניור מיני הוא אוכל יבש לכלבים מבוגרים מגזע קטן אשר מומלץ לכלבים מעל גיל 8. ארוחה מלאה הכוללת גם שמן סלמון, אינולין, פרוביוטיקה, יוקה, חליטות צמחים ומלחי שוסלר. אוכל אשר שומר על השיניים, מערכת עיכול בריאה ותורם לשרירים ומפרקים אשר עוזרים נגד הזדקנות.</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t>אוכל היפואלרגני יבש לכלבים בוגרים מגזע קטן עם רגישויות</t>
   </si>
   <si>
-    <t>אוכל יבש לכלבים מבוגרים מגזעים קטנים אשר סובלים ממערכת עיכול, עור ופרווה רגישה</t>
-  </si>
-  <si>
     <t xml:space="preserve">פרינס קרוק כבש מיני הוא אוכל יבש היפואלרגני המתאים לכלבים בוגרים מגזע קטן עם מערכת עיכול רגישה ו/או פרווה או עור רגיש. אוכל זה משלב ארוחה מלאה ממקור חלבון אחד מן אחי, כבש, אשר עוזרים לכלבים רגישים. באוכל זה קיימים גם מרכיבים אשר נבחרו בזהירות כמו שמן סלמון, אינולין, פרוביוטיקה, יוקה, תמציות צמחים ומלחי שוסלר אשר תורמים להתפתחותו של הכלב עם שיניים בריאות, עור, פרווה ומערכת עיכול בריאה. </t>
   </si>
   <si>
@@ -580,9 +568,6 @@
     <t>במיוחד בשביל כלבים קטנים עד 10 קילו, אוכל לכל הגילאים אשר מספק ארוחה מלאה וכופתייה חדשה וקטנה יותר הבנוייה בצורה שעוזרת גם לבריאות הפה. אוכל המתאים לגורים ועד מבוגרים</t>
   </si>
   <si>
-    <t>פרינס פרוטקשן קרוק מיני, סדרת אוכל הנועדה לכלבים קטנים עד 10 קילו אשר כוללת פרוביוטיקה, תמציות צמחים, מלחי שוסלר ומרכיבים נוספים אשר תומכים בדברים שונים כמו פעילות מעי בריאה, תמיכה בשרירים ומפרקים ותפקוד בריא של הלב. מלחי שוסלר הם לא מלחים אמיתיים אלא מינרלים הנמצאים בגוף. בשביל לספק לגוף את הדברים אשר הוא צריך כדי לתפקד באופן בריא, המלחים האלה צריכים להיות קיימים בגוף.</t>
-  </si>
-  <si>
     <t>protection-croque</t>
   </si>
   <si>
@@ -646,18 +631,12 @@
     <t>פרינס פיט פאפי &amp; ג'וניור הוא אוכל יבש אשר מתאים במיוחד לכלבים צעירים ומספק את כל הערכים התזונתיים והאנרגיה שהכלב שלכם צריך.  ארוחה מלאה אשר עוזרת לגדילת הכלב שלך, תפקוד המעי, מערכת חיסונית חזקה וגדילה אופטימלית של העצמות ומפרקים. הגור שלך יגדל בצורה מאוזנת בזמן שהוא הופך לכלב בוגר.</t>
   </si>
   <si>
-    <t>אוכל יבש לכלבים גורים וכלבים צעירים ופעילים</t>
-  </si>
-  <si>
     <t>אוכל יבש לכלבים צעירים גדלים ופעילים</t>
   </si>
   <si>
     <t>פרינס סניור הוא אוכל יבש לכלבים מבוגרים מגזעים בינוניים עד גדולים המומלץ להתחיל בגיל 8 ומעלה. האוכל הטעים הזה מגרה לעיסה מרובה ותורם למערכת עיכול בריאה ומאוזנת. אוכל טעים מאוד אשר מספק אורח חיים בריא לכלבכם.</t>
   </si>
   <si>
-    <t>אוכל יבש לכלבים מבוגרים מגזעים בינוניים וגדולים</t>
-  </si>
-  <si>
     <t>אוכל יבש לכלבים מבוגרים מגזע בינוני או גדול</t>
   </si>
   <si>
@@ -679,43 +658,130 @@
     <t xml:space="preserve">אוכל יבש לכלבים עם משקל עודף ו/או כלבים סכרתיים </t>
   </si>
   <si>
-    <t>פרינס דיאטטיק לירידה במשקל הוא אוכל יבש לכלבים עם עודף משקל או כלבים סכרתיים. אוכל אשר יעזור לכם להוריד את הכלב במשקל באופן אחראי ובריא ותומך ברמה מאוזנת של סוכר בדם. האיזון האופטימלי של ויטמינים ומינרלים מבטיח דיאטה מאוזנת בזמן הירידה במשקל. תוספות של ערכים תזונתיים אשר עוזרים ממזערים את תחושת הרעב של הכלב בזמן הירידה במשקל</t>
-  </si>
-  <si>
     <t>אוכל היפואלרגני יבש לכלבים עם פרווה רגישה</t>
   </si>
   <si>
-    <t>אוכל היפואלרגני לכלב אשר סובל מפרווה רגישה</t>
-  </si>
-  <si>
-    <t>פרינס דיאטטיק לבעיות עור ומעי רגיש הוא אוכל יבש היפואלרגני המיועד לכלבים בוגרים אשר מראים רגישות לאוכל (כמו בעיות עור או פרווה) ו/או  בעיות עיכול. האוכל הזה הוא ארוחה מלא אשר מכילה מקור חלבון יחיד מן החי  ופחמימה ועוזר להפחית תגובות לא רצויות. מצרכים אשר נבחרו בקפידה ותורמים למערכת עיכול ועור בריא</t>
-  </si>
-  <si>
-    <t>אוכל לכלבים אשר סובלים מקיבה רגישה</t>
-  </si>
-  <si>
     <t>אוכל יבש לכלב אשר סובל מקיבה רגישה</t>
   </si>
   <si>
-    <t>פרינס דיאטטיק לקיבה רגישה הוא יבש הנועד לכלבים אשר סובלים מובלים מבעיות עיכול כמו צואה רכה או שלשול. כלבים עם קיבה רגישה לרוב סובלים מצואה רכה ולפעמים גם הקאות שכיחות. אוכל זה מספק ארוחה מלאה עם אחוז שומן נמוך וסיבים כדי לתמוך במערכת העיכול של הכלב ולהבטיח אוכל אשר קל לעיכול. מכיוון שאוכל זה הוא היפואלרגני הוא מכיל מקור חלבון אחד מן החי, סלמון, מה שעוזר להפחית תגובות לא רצויות מרגישיות שונות</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אוכל לכלבים אשר סובלים מבעיות בכליות </t>
-  </si>
-  <si>
     <t>אוכל יבש אשר עוזר לתמיכה בכליות</t>
   </si>
   <si>
-    <t>מחלת כליות כרונית הוא דבר שכיח בכלבים, במיוחד כלבים מבוגרים יותר. לפרינס דיאטטיק לתמיכה בכליות יש אפקט חיובי על הכליות ויכול לעזור להאט את דעיכת תפקוד הכליות. אוכל אשר מספק ארוחה מלאה ונועד במיוחד לכלבים עם מחלת כליות כרונית</t>
-  </si>
-  <si>
-    <t>אוכל לכלבים אשר סובלים מבעיות בדרכי השתן</t>
-  </si>
-  <si>
     <t>אוכל יבש אשר נועד לכלבים עם בעיות בדרכי השתן</t>
   </si>
   <si>
     <t>פרינס דיאטטיק לבעיות בדרכי השתן הוא אוכל יבש הנועד בשביל לפרק ולמנוע אבנים בדרכי השתן. אוכל זה מספק דיאטה מאוזנת בשביל פירוק האבנים. בנוסף, האוכל מכיל כמות מותאמת של מינרלים בשביל למנוע חזרה של אבנים.</t>
+  </si>
+  <si>
+    <t>פרינס פרוטקשן קרוק מיני, סדרת אוכל הנועדה לכלבים קטנים עד 10 קילו אשר כוללת פרוביוטיקה, תמציות צמחים, מלחי שוסלר ומרכיבים נוספים אשר תומכים בדברים שונים כמו פעילות מעי בריאה, תמיכה בשרירים ומפרקים ותפקוד בריא של הלב. מלחי שוסלר הם לא מלחים אמיתיים אלא מינרלים הנמצאים בגוף בשביל לספק את הדברים אשר הוא צריך כדי לתפקד באופן בריא.</t>
+  </si>
+  <si>
+    <t>אוכל יבש לחתולים גורים או חתולות בהריון</t>
+  </si>
+  <si>
+    <t>אוכל לגורים וחתולות בהריון.</t>
+  </si>
+  <si>
+    <t>מחלת כליות כרונית הוא דבר שכיח בכלבים, במיוחד כלבים מבוגרים יותר. לפרינס דיאטטיק לתמיכה בכליות יש אפקט חיובי על הכליות ויכול לעזור להאט את דעיכת תפקוד הכליות. אוכל אשר מספק ארוחה מלאה ונועד במיוחד לכלבים עם מחלת כליות כרונית.</t>
+  </si>
+  <si>
+    <t>פרינס דיאטטיק לירידה במשקל הוא אוכל יבש לכלבים עם עודף משקל או כלבים סכרתיים. אוכל אשר יעזור לכם להוריד את הכלב במשקל באופן אחראי ובריא ותומך ברמה מאוזנת של סוכר בדם. האיזון האופטימלי של ויטמינים ומינרלים מבטיח דיאטה מאוזנת בזמן הירידה במשקל. תוספות של ערכים תזונתיים אשר עוזרים ממזערים את תחושת הרעב של הכלב בזמן הירידה במשקל.</t>
+  </si>
+  <si>
+    <t>פרינס דיאטטיק לבעיות עור ומעי רגיש הוא אוכל יבש היפואלרגני המיועד לכלבים בוגרים אשר מראים רגישות לאוכל (כמו בעיות עור או פרווה) ו/או  בעיות עיכול. האוכל הזה הוא ארוחה מלא אשר מכילה מקור חלבון יחיד מן החי  ופחמימה ועוזר להפחית תגובות לא רצויות. מצרכים אשר נבחרו בקפידה ותורמים למערכת עיכול ועור בריא.</t>
+  </si>
+  <si>
+    <t>פרינס דיאטטיק לקיבה רגישה הוא יבש הנועד לכלבים אשר סובלים מובלים מבעיות עיכול כמו צואה רכה או שלשול. כלבים עם קיבה רגישה לרוב סובלים מצואה רכה ולפעמים גם הקאות שכיחות. אוכל זה מספק ארוחה מלאה עם אחוז שומן נמוך וסיבים כדי לתמוך במערכת העיכול של הכלב ולהבטיח אוכל אשר קל לעיכול. מכיוון שאוכל זה הוא היפואלרגני הוא מכיל מקור חלבון אחד מן החי, סלמון, מה שעוזר להפחית תגובות לא רצויות מרגישיות שונות.</t>
+  </si>
+  <si>
+    <t>אוכל לכלבים בוגרים מגזעים בינוניים וגדולים.</t>
+  </si>
+  <si>
+    <t>אוכל לכלבים פעילים בוגרים מגזעים קטנים.</t>
+  </si>
+  <si>
+    <t>אוכל יבש לכלבים מבוגרים מגזעים קטנים.</t>
+  </si>
+  <si>
+    <t>אוכל יבש לכלבים מבוגרים מגזעים קטנים אשר סובלים ממערכת עיכול, עור ופרווה רגישה.</t>
+  </si>
+  <si>
+    <t>אוכל יבש לכלבים גורים וכלבים צעירים ופעילים.</t>
+  </si>
+  <si>
+    <t>אוכל יבש לכלבים מבוגרים מגזעים בינוניים וגדולים.</t>
+  </si>
+  <si>
+    <t>אוכל יבש לכלבים עם משקל עודף ו/או כלבים סכרתיים.</t>
+  </si>
+  <si>
+    <t>אוכל היפואלרגני לכלב אשר סובל מפרווה רגישה.</t>
+  </si>
+  <si>
+    <t>אוכל לכלבים אשר סובלים מקיבה רגישה.</t>
+  </si>
+  <si>
+    <t>אוכל לכלבים אשר סובלים מבעיות בכליות.</t>
+  </si>
+  <si>
+    <t>אוכל לכלבים אשר סובלים מבעיות בדרכי השתן.</t>
+  </si>
+  <si>
+    <t>אוכל יבש לחתולים מבוגרים</t>
+  </si>
+  <si>
+    <t>אוכל לחתולים מבוגרים.</t>
+  </si>
+  <si>
+    <t>VitcalCare גורים הוא אוכל יבש לחתולים גורים מגיל 4 שבועות עד 10-12 חודשים. אוכל זה מספק ארוחה מלאה אשר תומכת בגדילה בריאה, מערכת חיסונית חזקה והתפתחות אופטימלית של המפרקים ועצמות. בגלל החלבון האיכותי והכמות הגבוהה שנמצאת באוכל, אוכל זה מתאים ומומלץ לחתולות הריוניות או מניקות.</t>
+  </si>
+  <si>
+    <t>VitalCare סניור הוא אוכל יבש מומלץ במיוחד לחתולים מבוגרים מגיל 7. ארוחה מלאה אשר מספקת את כל הערכים הצריך חתול בוגר וגם תומכת בחיזוק המערכת החיסונית וחיזוק העצמות והמפרקים</t>
+  </si>
+  <si>
+    <t>אוכל יבש לחתולי בית בוגרים</t>
+  </si>
+  <si>
+    <t>אוכל לחתולי בית בוגרים.</t>
+  </si>
+  <si>
+    <t>VitalCare אינדור הוא אוכל יבש לחתולי בית בוגרים המומלץ עד גיל 7. חתולי בית הם לרוב פחות פעילים וצריכת האנרגיות שלהם נמוכה עקב כך. ארוחה מלאה זאת תעזור לחתול שלכם לשמור על משקל בריא. בכלל כמות חלבון גבוהה וכמות שומן נמוך, אוכל זה מתאים מאוד גם לחתולים מסורסים או מעוקרים.</t>
+  </si>
+  <si>
+    <t>אוכל יבש לחתול הביתי, מומלץ לבתים עם מספר חתולים</t>
+  </si>
+  <si>
+    <t>אוכל מגוון לחתולים בוגרים.</t>
+  </si>
+  <si>
+    <t>VitalCare מולטי הוא אוכל יבש לחתולים בוגרים המומלץ עד גיל 7. ארוחה מלאה אשר תומכת במערכת חיסונית בריאה, פרווה מבריקה ותפקוד בריא של המעי. הגיוון בצורה וגודל הכופתיות באוכל הופכים אותו לאוכל האופטימלי בשביל בתים עם מספר חתולים</t>
+  </si>
+  <si>
+    <t>אוכל יבש לחתולים בוגרים מסורסים/מעוקרים</t>
+  </si>
+  <si>
+    <t>אוכל לחתולים בוגרים מסורסים או חתולות מעוקרות.</t>
+  </si>
+  <si>
+    <t>VitalCare סטרלייזד הוא אוכל יבש המותאם במיוחד לחתולים בוגרים מסורסים או חתולות מעוקרות. כמות גבוהה של סיבים תזונתיים מבטיחים סיפוק ותחושת סובע אצל החתול שלכם כדי לשמור על משקל בריא.</t>
+  </si>
+  <si>
+    <t>אוכל דיאטטי יבש וטבעי וחתולים עם עודף משקל או סכרתיים</t>
+  </si>
+  <si>
+    <t>אוכל דיאטטי חתולים עם עודף משקל או חתולים הסובלים מסכרת.</t>
+  </si>
+  <si>
+    <t>VitalCare דיאטטי לירידה במשקל הוא אוכל יבש אשר פותח במיוחד בשביל כלבים עם עודף משקל או חתולים הסובלים מסכרת. האוכל הדיאטטי הזה עוזר לחתול שלכם לרדת במשקל באופן אחרי ומתון וגם תומך באיזון רמת הסוכר בדם. איזון של ויטמינים ומינרלים אשר מספק לחתול את הערכים שהוא צריך גם בזמן הירידה במשקל. כמות גבוהה של סיבים תזונתיים עוזרת להפחית את תחושת הרעב של החתול ולשמור שתמיד יהיה שבע.</t>
+  </si>
+  <si>
+    <t>אוכל יבש טבעי לחתולים עם בעיות עור או בעיות מעיים</t>
+  </si>
+  <si>
+    <t>אוכל לחתולים הסובלים מבעיות עור או בעיות מעיים.</t>
+  </si>
+  <si>
+    <t>VitalCare היפואלרגני הוא אוכל יבש המתאים במיוחד לחתולים בוגרים אשר מראים רגישות לאוכל שלהם ו/או חתולים אשר סובלים מבעיות עיכול. אוכל זה מכיל חלבון ממקור אחד מן החי ולא מכיל סייטן, אשר מפחית את הסיכויים לתגובה אלרגית.מרכיבים אשר נבחרו בקפידה עוזרים לתפקוד בריא של מערכת העיכול ולשמירה על עור בריא. אוכל זה מתאים גם לחתולים עם צריכת אנרגיה נמוכה, כמו חתולים מסורסים או חתולים עם נטייה לעודף משקל.</t>
   </si>
 </sst>
 </file>
@@ -1558,15 +1624,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:K26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" customWidth="1"/>
     <col min="10" max="10" width="46" customWidth="1"/>
     <col min="11" max="11" width="115.42578125" customWidth="1"/>
   </cols>
@@ -1638,18 +1705,18 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1658,7 +1725,7 @@
         <v>20426</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1670,24 +1737,24 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1696,7 +1763,7 @@
         <v>20126</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1711,21 +1778,21 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1734,7 +1801,7 @@
         <v>20326</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1746,24 +1813,24 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1772,7 +1839,7 @@
         <v>20626</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1784,24 +1851,24 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>45</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1810,7 +1877,7 @@
         <v>20726</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1822,24 +1889,24 @@
         <v>16</v>
       </c>
       <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
         <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -1848,36 +1915,36 @@
         <v>8445</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J8" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1886,36 +1953,36 @@
         <v>8446</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J9" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="K9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -1924,36 +1991,36 @@
         <v>5045</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J10" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="K10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -1962,36 +2029,36 @@
         <v>8515</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -2000,36 +2067,36 @@
         <v>8546</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -2038,36 +2105,36 @@
         <v>8015</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="K13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2076,36 +2143,36 @@
         <v>8046</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="K14" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -2114,36 +2181,36 @@
         <v>8715</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="K15" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2152,36 +2219,36 @@
         <v>8746</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="K16" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -2190,36 +2257,36 @@
         <v>84815</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J17" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="K17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -2228,36 +2295,36 @@
         <v>84846</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J18" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="K18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -2266,36 +2333,36 @@
         <v>84615</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J19" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K19" t="s">
         <v>222</v>
       </c>
       <c r="L19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2304,36 +2371,36 @@
         <v>84646</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K20" t="s">
         <v>222</v>
       </c>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -2342,36 +2409,36 @@
         <v>84115</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
+        <v>232</v>
+      </c>
+      <c r="K21" t="s">
         <v>223</v>
       </c>
-      <c r="K21" t="s">
-        <v>225</v>
-      </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -2380,36 +2447,36 @@
         <v>84146</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
+        <v>232</v>
+      </c>
+      <c r="K22" t="s">
         <v>223</v>
       </c>
-      <c r="K22" t="s">
-        <v>225</v>
-      </c>
       <c r="L22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -2418,36 +2485,36 @@
         <v>84515</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -2456,36 +2523,36 @@
         <v>84546</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -2494,36 +2561,36 @@
         <v>84715</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="J25" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -2532,36 +2599,36 @@
         <v>84746</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -2570,27 +2637,36 @@
         <v>60009</v>
       </c>
       <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
         <v>109</v>
-      </c>
-      <c r="E27" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
-        <v>112</v>
-      </c>
-      <c r="L27" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B28">
         <v>1.5</v>
@@ -2599,27 +2675,36 @@
         <v>60007</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>237</v>
       </c>
       <c r="L28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -2628,27 +2713,36 @@
         <v>62009</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="I29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s">
+        <v>238</v>
       </c>
       <c r="L29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>1.5</v>
@@ -2657,27 +2751,36 @@
         <v>62007</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="I30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" t="s">
+        <v>238</v>
       </c>
       <c r="L30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -2686,27 +2789,36 @@
         <v>63009</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" t="s">
+        <v>241</v>
       </c>
       <c r="L31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B32">
         <v>1.5</v>
@@ -2715,27 +2827,36 @@
         <v>63008</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G32" t="s">
         <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="I32" t="s">
+        <v>239</v>
+      </c>
+      <c r="J32" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" t="s">
+        <v>241</v>
       </c>
       <c r="L32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -2744,27 +2865,36 @@
         <v>66015</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="I33" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" t="s">
+        <v>244</v>
       </c>
       <c r="L33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -2773,27 +2903,36 @@
         <v>66009</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
       </c>
       <c r="L34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B35">
         <v>1.5</v>
@@ -2802,27 +2941,36 @@
         <v>66007</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="I35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" t="s">
+        <v>244</v>
       </c>
       <c r="L35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2831,27 +2979,36 @@
         <v>68009</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G36" t="s">
         <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="I36" t="s">
+        <v>245</v>
+      </c>
+      <c r="J36" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" t="s">
+        <v>247</v>
       </c>
       <c r="L36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B37">
         <v>1.5</v>
@@ -2860,27 +3017,36 @@
         <v>68007</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="I37" t="s">
+        <v>245</v>
+      </c>
+      <c r="J37" t="s">
+        <v>246</v>
+      </c>
+      <c r="K37" t="s">
+        <v>247</v>
       </c>
       <c r="L37" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -2889,27 +3055,36 @@
         <v>74009</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G38" t="s">
         <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="I38" t="s">
+        <v>248</v>
+      </c>
+      <c r="J38" t="s">
+        <v>249</v>
+      </c>
+      <c r="K38" t="s">
+        <v>250</v>
       </c>
       <c r="L38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1.5</v>
@@ -2918,27 +3093,36 @@
         <v>74007</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G39" t="s">
         <v>16</v>
       </c>
       <c r="H39" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="I39" t="s">
+        <v>248</v>
+      </c>
+      <c r="J39" t="s">
+        <v>249</v>
+      </c>
+      <c r="K39" t="s">
+        <v>250</v>
       </c>
       <c r="L39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -2947,27 +3131,36 @@
         <v>76009</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
       </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="I40" t="s">
+        <v>251</v>
+      </c>
+      <c r="J40" t="s">
+        <v>252</v>
+      </c>
+      <c r="K40" t="s">
+        <v>253</v>
       </c>
       <c r="L40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B41">
         <v>1.5</v>
@@ -2976,27 +3169,36 @@
         <v>76007</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="I41" t="s">
+        <v>251</v>
+      </c>
+      <c r="J41" t="s">
+        <v>252</v>
+      </c>
+      <c r="K41" t="s">
+        <v>253</v>
       </c>
       <c r="L41" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -3005,27 +3207,27 @@
         <v>77009</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G42" t="s">
         <v>16</v>
       </c>
       <c r="H42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B43">
         <v>1.5</v>
@@ -3034,27 +3236,27 @@
         <v>77007</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
       </c>
       <c r="H43" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L43" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -3063,27 +3265,27 @@
         <v>77109</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G44" t="s">
         <v>16</v>
       </c>
       <c r="H44" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L44" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B45">
         <v>1.5</v>
@@ -3092,27 +3294,27 @@
         <v>77107</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B46">
         <v>0.2</v>
@@ -3121,27 +3323,27 @@
         <v>57116</v>
       </c>
       <c r="D46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H46" t="s">
+        <v>149</v>
+      </c>
+      <c r="L46" t="s">
         <v>150</v>
-      </c>
-      <c r="E46" t="s">
-        <v>110</v>
-      </c>
-      <c r="F46" t="s">
-        <v>151</v>
-      </c>
-      <c r="G46" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" t="s">
-        <v>153</v>
-      </c>
-      <c r="L46" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B47">
         <v>0.2</v>
@@ -3150,27 +3352,27 @@
         <v>57316</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H47" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B48">
         <v>0.2</v>
@@ -3179,27 +3381,27 @@
         <v>57416</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G48" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H48" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B49">
         <v>0.4</v>
@@ -3208,27 +3410,27 @@
         <v>55116</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H49" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B50">
         <v>0.4</v>
@@ -3237,27 +3439,27 @@
         <v>55316</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H50" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L50" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B51">
         <v>0.2</v>
@@ -3266,22 +3468,22 @@
         <v>58316</v>
       </c>
       <c r="D51" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G51" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H51" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L51" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3292,31 +3494,31 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" t="s">
         <v>173</v>
       </c>
-      <c r="D53" t="s">
+      <c r="H53" t="s">
         <v>174</v>
       </c>
-      <c r="E53" t="s">
+      <c r="I53" t="s">
         <v>175</v>
       </c>
-      <c r="F53" t="s">
+      <c r="J53" t="s">
         <v>176</v>
       </c>
-      <c r="G53" t="s">
+      <c r="K53" t="s">
         <v>177</v>
-      </c>
-      <c r="H53" t="s">
-        <v>178</v>
-      </c>
-      <c r="I53" t="s">
-        <v>179</v>
-      </c>
-      <c r="J53" t="s">
-        <v>180</v>
-      </c>
-      <c r="K53" t="s">
-        <v>181</v>
       </c>
       <c r="L53" t="s">
         <v>4</v>
@@ -3330,224 +3532,224 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E54" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J54" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K54" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="L54" t="s">
         <v>14</v>
       </c>
       <c r="M54" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" t="s">
+        <v>186</v>
+      </c>
+      <c r="J55" t="s">
+        <v>187</v>
+      </c>
+      <c r="K55" t="s">
         <v>188</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>189</v>
-      </c>
-      <c r="E55" t="s">
-        <v>190</v>
-      </c>
-      <c r="F55" t="s">
-        <v>191</v>
-      </c>
-      <c r="J55" t="s">
-        <v>192</v>
-      </c>
-      <c r="K55" t="s">
-        <v>193</v>
       </c>
       <c r="L55" t="s">
         <v>14</v>
       </c>
       <c r="M55" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" t="s">
+        <v>172</v>
+      </c>
+      <c r="G56" t="s">
+        <v>173</v>
+      </c>
+      <c r="H56" t="s">
         <v>174</v>
       </c>
-      <c r="E56" t="s">
+      <c r="I56" t="s">
         <v>175</v>
       </c>
-      <c r="F56" t="s">
-        <v>176</v>
-      </c>
-      <c r="G56" t="s">
-        <v>177</v>
-      </c>
-      <c r="H56" t="s">
-        <v>178</v>
-      </c>
-      <c r="I56" t="s">
-        <v>179</v>
-      </c>
       <c r="J56" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K56" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L56" t="s">
         <v>14</v>
       </c>
       <c r="M56" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
       </c>
       <c r="D57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" t="s">
         <v>174</v>
       </c>
-      <c r="E57" t="s">
+      <c r="I57" t="s">
         <v>175</v>
       </c>
-      <c r="F57" t="s">
-        <v>176</v>
-      </c>
-      <c r="G57" t="s">
-        <v>177</v>
-      </c>
-      <c r="H57" t="s">
-        <v>178</v>
-      </c>
-      <c r="I57" t="s">
-        <v>179</v>
-      </c>
       <c r="J57" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K57" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M57" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
       </c>
       <c r="D58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" t="s">
+        <v>172</v>
+      </c>
+      <c r="G58" t="s">
+        <v>173</v>
+      </c>
+      <c r="H58" t="s">
         <v>174</v>
       </c>
-      <c r="E58" t="s">
+      <c r="I58" t="s">
         <v>175</v>
       </c>
-      <c r="F58" t="s">
-        <v>176</v>
-      </c>
-      <c r="G58" t="s">
-        <v>177</v>
-      </c>
-      <c r="H58" t="s">
-        <v>178</v>
-      </c>
-      <c r="I58" t="s">
-        <v>179</v>
-      </c>
       <c r="J58" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K58" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L58" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M58" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59" t="s">
+        <v>173</v>
+      </c>
+      <c r="H59" t="s">
         <v>174</v>
       </c>
-      <c r="E59" t="s">
+      <c r="I59" t="s">
         <v>175</v>
       </c>
-      <c r="F59" t="s">
-        <v>176</v>
-      </c>
-      <c r="G59" t="s">
-        <v>177</v>
-      </c>
-      <c r="H59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I59" t="s">
-        <v>179</v>
-      </c>
       <c r="J59" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K59" t="s">
+        <v>196</v>
+      </c>
+      <c r="L59" t="s">
+        <v>106</v>
+      </c>
+      <c r="M59" t="s">
         <v>201</v>
-      </c>
-      <c r="L59" t="s">
-        <v>110</v>
-      </c>
-      <c r="M59" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/final_inv.xlsx
+++ b/final_inv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\prins-il\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107C9417-4880-40C2-8DAE-19281B1B30E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CD3D70-AD68-48C5-84E9-DC3D8BC9DEFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37365" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="274">
   <si>
     <t>food_name</t>
   </si>
@@ -782,6 +782,66 @@
   </si>
   <si>
     <t>VitalCare היפואלרגני הוא אוכל יבש המתאים במיוחד לחתולים בוגרים אשר מראים רגישות לאוכל שלהם ו/או חתולים אשר סובלים מבעיות עיכול. אוכל זה מכיל חלבון ממקור אחד מן החי ולא מכיל סייטן, אשר מפחית את הסיכויים לתגובה אלרגית.מרכיבים אשר נבחרו בקפידה עוזרים לתפקוד בריא של מערכת העיכול ולשמירה על עור בריא. אוכל זה מתאים גם לחתולים עם צריכת אנרגיה נמוכה, כמו חתולים מסורסים או חתולים עם נטייה לעודף משקל.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אוכל יבש לחתולים עם כשל כרוני בכליות </t>
+  </si>
+  <si>
+    <t>אוכל לחתולים הסובלים מכשל כרוני בכליות.</t>
+  </si>
+  <si>
+    <t>כשל כרוני בכליות הוא דבר שכיח, במיוחד אצל חתולים מבוגרים. תמיכה בכליות עם אוכל המתאים לכך יכול להשפיע בחיוביות על הכליות ולמזער הדרדרות של הכליות. פרינס לתמיכה בכליות הוא אוכל מלא אשר פותח במיוחד בשביל חתולים בוגרים עם כשל כרוני בכליות. בזכות התכונות המיוחדות של אוכל זה, הוא גם מומלץ לחתולים עם אבנים בדרכי השתן.</t>
+  </si>
+  <si>
+    <t>אוכל יבש לחתולים עם בעיות עיכול</t>
+  </si>
+  <si>
+    <t>אוכל לחתולים עם בעיות עיכול.</t>
+  </si>
+  <si>
+    <t>בעיות עיכול עם דבר שכיח אצל חתולים. חתולים עם בעיות עיכול בדרך כלל סובלים מצואה רכה ולפעמים עם הקאות שכיחות. פרינס לבעיות עיכול הוא אוכל המכיל שומן נמוך וסיבים אשר עוזרים לעיכול קל ממקור אוכל בריא. אוכל זה הוא גם היפואלרגני, מה שאומר שהוא מכיל רק סלמון כמקור חלבון מן החי, מה שמפחית את הסיכוי לתגובה אלרגית לא רצויה. אוכל זה מכיל גם מרכיבים אשר עוזרים לשמור על מעי בריא.</t>
+  </si>
+  <si>
+    <t>אוכל רטוב טבעי ואיכותי לחתולים</t>
+  </si>
+  <si>
+    <t>NatureCare לחתול זה ארוחת בשר טבעית והאולטימטיבית בשביל חתולים בכל הגילאים. האוכל מתאים מאוד כתוסף בריא לגיוון עם האוכל היבש. (מומלץ לא לערבב!). NatureCare עוף העשיר בחמוציות עוזר לשמור דרכי שתן בריאים</t>
+  </si>
+  <si>
+    <t>NatureCare לחתול זה ארוחת בשר טבעית והאולטימטיבית בשביל חתולים בכל הגילאים. האוכל מתאים מאוד כתוסף בריא לגיוון עם האוכל היבש. (מומלץ לא לערבב!).התוסספת של אלוורה באוכל זה תורמת עור ופרווה בריאה</t>
+  </si>
+  <si>
+    <t>NatureCare לחתול זה ארוחת בשר טבעית והאולטימטיבית בשביל חתולים בכל הגילאים. האוכל מתאים מאוד כתוסף בריא לגיוון עם האוכל היבש. (מומלץ לא לערבב!). תוספת של אצות לאוכל זה עוזרת לשמור על פרווה מבריקה!</t>
+  </si>
+  <si>
+    <t>אוכל רטוב טבעי לחתולים אשר סובלים מבעיות בדרכי השתן</t>
+  </si>
+  <si>
+    <t>בשביל חתולים הסובלים מבעיות בדרכי השתן.</t>
+  </si>
+  <si>
+    <t>אוכל רטוב טבעי לחתולים.</t>
+  </si>
+  <si>
+    <t>אוכל רטוב אשר מתאים במיוחד לחתולים עם בעיות בדרכי השתן. האוכל המיוחד הזה פותח במיוחד בשיתןף פעולה עם וטרינרים ומתאים גם לפירוק וגם למניעה. בנוסף אוכל זה מונע חזרה של אבנים בדרכי השתן. אוכל רטוב הנועד גם להגביר את כמות השתן אצל החתול וכתוצאה מכך לשמור על דרכי שתן בריאים.</t>
+  </si>
+  <si>
+    <t>אוכל רטוב לכלבים הסובלים מבעיות עור או עיכול.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אוכל טבעי  היפואלרגני רטוב לכלבים עם בעיות עור או עיכול </t>
+  </si>
+  <si>
+    <t>אוכל רטוב היפואלרגני לכלבים אשר מראים רגישות לאוכל וסובלים מבעיות עור, פרווה או עיכול עקב כך. ארוחה מלאה לכלב אשר פותחה בעבודה יחד עם וטרינרים כדי לספק לכלב שלך אוכל בריא!. מכיל מקור חלבון אחד מן החי אשר עוזר להפחית תגובות לא רצויות אצל הכלב.</t>
+  </si>
+  <si>
+    <t>אוכל רטוב טבעי לכלבים אשר סובלים מבעיות בדרכי השתן</t>
+  </si>
+  <si>
+    <t>בשביל כלבים הסובלים מבעיות בדרכי השתן.</t>
+  </si>
+  <si>
+    <t>אוכל רטוב אשר מתאים במיוחד לכלבים עם בעיות בדרכי השתן. האוכל המיוחד הזה פותח במיוחד בשיתןף פעולה עם וטרינרים ומתאים גם לפירוק וגם למניעה. בנוסף אוכל זה מונע חזרה של אבנים בדרכי השתן. אוכל רטוב הנועד גם להגביר את כמות השתן אצל הכלב וכתוצאה מכך לשמור על דרכי שתן בריאים.</t>
   </si>
 </sst>
 </file>
@@ -1624,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:K41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3221,6 +3281,15 @@
       <c r="H42" t="s">
         <v>140</v>
       </c>
+      <c r="I42" t="s">
+        <v>254</v>
+      </c>
+      <c r="J42" t="s">
+        <v>255</v>
+      </c>
+      <c r="K42" t="s">
+        <v>256</v>
+      </c>
       <c r="L42" t="s">
         <v>97</v>
       </c>
@@ -3250,6 +3319,15 @@
       <c r="H43" t="s">
         <v>140</v>
       </c>
+      <c r="I43" t="s">
+        <v>254</v>
+      </c>
+      <c r="J43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K43" t="s">
+        <v>256</v>
+      </c>
       <c r="L43" t="s">
         <v>97</v>
       </c>
@@ -3279,6 +3357,15 @@
       <c r="H44" t="s">
         <v>143</v>
       </c>
+      <c r="I44" t="s">
+        <v>257</v>
+      </c>
+      <c r="J44" t="s">
+        <v>258</v>
+      </c>
+      <c r="K44" t="s">
+        <v>259</v>
+      </c>
       <c r="L44" t="s">
         <v>92</v>
       </c>
@@ -3308,6 +3395,15 @@
       <c r="H45" t="s">
         <v>143</v>
       </c>
+      <c r="I45" t="s">
+        <v>257</v>
+      </c>
+      <c r="J45" t="s">
+        <v>258</v>
+      </c>
+      <c r="K45" t="s">
+        <v>259</v>
+      </c>
       <c r="L45" t="s">
         <v>92</v>
       </c>
@@ -3337,6 +3433,15 @@
       <c r="H46" t="s">
         <v>149</v>
       </c>
+      <c r="I46" t="s">
+        <v>260</v>
+      </c>
+      <c r="J46" t="s">
+        <v>266</v>
+      </c>
+      <c r="K46" t="s">
+        <v>261</v>
+      </c>
       <c r="L46" t="s">
         <v>150</v>
       </c>
@@ -3366,6 +3471,15 @@
       <c r="H47" t="s">
         <v>153</v>
       </c>
+      <c r="I47" t="s">
+        <v>260</v>
+      </c>
+      <c r="J47" t="s">
+        <v>266</v>
+      </c>
+      <c r="K47" t="s">
+        <v>262</v>
+      </c>
       <c r="L47" t="s">
         <v>154</v>
       </c>
@@ -3395,6 +3509,15 @@
       <c r="H48" t="s">
         <v>157</v>
       </c>
+      <c r="I48" t="s">
+        <v>260</v>
+      </c>
+      <c r="J48" t="s">
+        <v>266</v>
+      </c>
+      <c r="K48" t="s">
+        <v>263</v>
+      </c>
       <c r="L48" t="s">
         <v>158</v>
       </c>
@@ -3424,6 +3547,15 @@
       <c r="H49" t="s">
         <v>161</v>
       </c>
+      <c r="I49" t="s">
+        <v>269</v>
+      </c>
+      <c r="J49" t="s">
+        <v>268</v>
+      </c>
+      <c r="K49" t="s">
+        <v>270</v>
+      </c>
       <c r="L49" t="s">
         <v>162</v>
       </c>
@@ -3453,6 +3585,15 @@
       <c r="H50" t="s">
         <v>165</v>
       </c>
+      <c r="I50" t="s">
+        <v>271</v>
+      </c>
+      <c r="J50" t="s">
+        <v>272</v>
+      </c>
+      <c r="K50" t="s">
+        <v>273</v>
+      </c>
       <c r="L50" t="s">
         <v>166</v>
       </c>
@@ -3481,6 +3622,15 @@
       </c>
       <c r="H51" t="s">
         <v>168</v>
+      </c>
+      <c r="I51" t="s">
+        <v>264</v>
+      </c>
+      <c r="J51" t="s">
+        <v>265</v>
+      </c>
+      <c r="K51" t="s">
+        <v>267</v>
       </c>
       <c r="L51" t="s">
         <v>166</v>

--- a/final_inv.xlsx
+++ b/final_inv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\prins-il\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CD3D70-AD68-48C5-84E9-DC3D8BC9DEFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FD63FA-7E0F-404E-B24F-4BB291DEA1EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37365" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="279">
   <si>
     <t>food_name</t>
   </si>
@@ -559,36 +559,12 @@
     <t>croque_0.png</t>
   </si>
   <si>
-    <t>Crunchy kibble shape promotes chewing</t>
-  </si>
-  <si>
-    <t>Unique ingredients such as prebiotics and probiotics</t>
-  </si>
-  <si>
-    <t>במיוחד בשביל כלבים קטנים עד 10 קילו, אוכל לכל הגילאים אשר מספק ארוחה מלאה וכופתייה חדשה וקטנה יותר הבנוייה בצורה שעוזרת גם לבריאות הפה. אוכל המתאים לגורים ועד מבוגרים</t>
-  </si>
-  <si>
     <t>protection-croque</t>
   </si>
   <si>
     <t>fit-selection-DUO_0.png</t>
   </si>
   <si>
-    <t>Highly suitable for the family dog</t>
-  </si>
-  <si>
-    <t>Excellent digestibility</t>
-  </si>
-  <si>
-    <t>Tasty varieties</t>
-  </si>
-  <si>
-    <t>100% natural, crunchy food for your family dog.</t>
-  </si>
-  <si>
-    <t>The Prins Fit Selection line consists of complete, healthy food that contains high-quality and highly digestible ingredients, ideally suited to keep the family dog in optimum condition. The appetising crunchy kibble promotes chewing, so the feed is better ingested.</t>
-  </si>
-  <si>
     <t>fit-selection</t>
   </si>
   <si>
@@ -842,6 +818,45 @@
   </si>
   <si>
     <t>אוכל רטוב אשר מתאים במיוחד לכלבים עם בעיות בדרכי השתן. האוכל המיוחד הזה פותח במיוחד בשיתןף פעולה עם וטרינרים ומתאים גם לפירוק וגם למניעה. בנוסף אוכל זה מונע חזרה של אבנים בדרכי השתן. אוכל רטוב הנועד גם להגביר את כמות השתן אצל הכלב וכתוצאה מכך לשמור על דרכי שתן בריאים.</t>
+  </si>
+  <si>
+    <t>במיוחד בשביל כלבים קטנים עד 10 קילו, אוכל לכל הגילאים אשר מספק ארוחה מלאה וכופתייה חדשה וקטנה יותר הבנוייה בצורה שעוזרת גם לבריאות הפה. אוכל המתאים לגורים ועד מבוגרים.</t>
+  </si>
+  <si>
+    <t>סדרה המיועדת לכלבים בארבעה סגנונות: גורים, עוף &amp; אורז, כבש &amp; אורז, וגרסא לכלבים מבוגרים. כופתייה קראנצ'ית בצורה מיוחדת ודנטלית המתאימה במיוחד לכלבים זללנים.</t>
+  </si>
+  <si>
+    <t>הליין של פיט סלקשיין מכיל אוכל בריא ומלא הכולל מרכיבים איכותיים וקלים לעיכול, מתאים מאוד כדי לשמור על הכלב המשפחתי במצב מצויין. הכופתיות באוכל מיוחדות בשל צורתן ותורמות לבריאות הפה ועידוד אכילה איטית כדי שהאוכל התעקל טוב יותר.</t>
+  </si>
+  <si>
+    <t>מומלץ לכלבים קטנים.</t>
+  </si>
+  <si>
+    <t>כופתייה בצורה מיוחדת וקראנצ'ית אשר מנקה את השיניים.</t>
+  </si>
+  <si>
+    <t>מרכיבים יחודיים כמו פרוביוטיקה.</t>
+  </si>
+  <si>
+    <t>אוכל קל לעיכול.</t>
+  </si>
+  <si>
+    <t>100% טבעי ללא תוספים מלאכותיים.</t>
+  </si>
+  <si>
+    <t>מתאים לכל גיל.</t>
+  </si>
+  <si>
+    <t>קל מאוד לעיקול.</t>
+  </si>
+  <si>
+    <t>מתאים מאוד לכלב המשפחתי.</t>
+  </si>
+  <si>
+    <t>סוגים שונים טעימים ומגוונים.</t>
+  </si>
+  <si>
+    <t>מתאים מאוד ל"זללנים"</t>
   </si>
 </sst>
 </file>
@@ -1684,14 +1699,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="29.85546875" customWidth="1"/>
     <col min="9" max="9" width="39.42578125" customWidth="1"/>
     <col min="10" max="10" width="46" customWidth="1"/>
@@ -1765,7 +1784,7 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -1879,7 +1898,7 @@
         <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
@@ -1917,7 +1936,7 @@
         <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -1955,7 +1974,7 @@
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K7" t="s">
         <v>50</v>
@@ -1990,13 +2009,13 @@
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L8" t="s">
         <v>56</v>
@@ -2028,13 +2047,13 @@
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L9" t="s">
         <v>56</v>
@@ -2066,13 +2085,13 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -2104,10 +2123,10 @@
         <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J11" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K11" t="s">
         <v>65</v>
@@ -2142,10 +2161,10 @@
         <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J12" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K12" t="s">
         <v>65</v>
@@ -2180,13 +2199,13 @@
         <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J13" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K13" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L13" t="s">
         <v>71</v>
@@ -2218,13 +2237,13 @@
         <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J14" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K14" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L14" t="s">
         <v>71</v>
@@ -2256,13 +2275,13 @@
         <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J15" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L15" t="s">
         <v>76</v>
@@ -2294,13 +2313,13 @@
         <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J16" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L16" t="s">
         <v>76</v>
@@ -2332,13 +2351,13 @@
         <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J17" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L17" t="s">
         <v>82</v>
@@ -2370,13 +2389,13 @@
         <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L18" t="s">
         <v>82</v>
@@ -2408,13 +2427,13 @@
         <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J19" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K19" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s">
         <v>87</v>
@@ -2446,13 +2465,13 @@
         <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s">
         <v>87</v>
@@ -2484,13 +2503,13 @@
         <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
         <v>92</v>
@@ -2522,13 +2541,13 @@
         <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
         <v>92</v>
@@ -2560,13 +2579,13 @@
         <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
         <v>97</v>
@@ -2598,13 +2617,13 @@
         <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
         <v>97</v>
@@ -2636,13 +2655,13 @@
         <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
         <v>102</v>
@@ -2674,13 +2693,13 @@
         <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s">
         <v>102</v>
@@ -2712,13 +2731,13 @@
         <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
         <v>109</v>
@@ -2750,13 +2769,13 @@
         <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
         <v>109</v>
@@ -2788,13 +2807,13 @@
         <v>112</v>
       </c>
       <c r="I29" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J29" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s">
         <v>61</v>
@@ -2826,13 +2845,13 @@
         <v>112</v>
       </c>
       <c r="I30" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s">
         <v>61</v>
@@ -2864,13 +2883,13 @@
         <v>116</v>
       </c>
       <c r="I31" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J31" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K31" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s">
         <v>117</v>
@@ -2902,13 +2921,13 @@
         <v>116</v>
       </c>
       <c r="I32" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J32" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K32" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
         <v>117</v>
@@ -2940,13 +2959,13 @@
         <v>121</v>
       </c>
       <c r="I33" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J33" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K33" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L33" t="s">
         <v>122</v>
@@ -2978,13 +2997,13 @@
         <v>121</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J34" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K34" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L34" t="s">
         <v>122</v>
@@ -3016,13 +3035,13 @@
         <v>121</v>
       </c>
       <c r="I35" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J35" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K35" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L35" t="s">
         <v>122</v>
@@ -3054,13 +3073,13 @@
         <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="J36" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K36" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s">
         <v>128</v>
@@ -3092,13 +3111,13 @@
         <v>127</v>
       </c>
       <c r="I37" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="J37" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K37" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="L37" t="s">
         <v>128</v>
@@ -3130,13 +3149,13 @@
         <v>132</v>
       </c>
       <c r="I38" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J38" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K38" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L38" t="s">
         <v>82</v>
@@ -3168,13 +3187,13 @@
         <v>132</v>
       </c>
       <c r="I39" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J39" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K39" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L39" t="s">
         <v>82</v>
@@ -3206,13 +3225,13 @@
         <v>136</v>
       </c>
       <c r="I40" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J40" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K40" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L40" t="s">
         <v>137</v>
@@ -3244,13 +3263,13 @@
         <v>136</v>
       </c>
       <c r="I41" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J41" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L41" t="s">
         <v>137</v>
@@ -3282,13 +3301,13 @@
         <v>140</v>
       </c>
       <c r="I42" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J42" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K42" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L42" t="s">
         <v>97</v>
@@ -3320,13 +3339,13 @@
         <v>140</v>
       </c>
       <c r="I43" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J43" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K43" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L43" t="s">
         <v>97</v>
@@ -3358,13 +3377,13 @@
         <v>143</v>
       </c>
       <c r="I44" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="J44" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K44" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L44" t="s">
         <v>92</v>
@@ -3396,13 +3415,13 @@
         <v>143</v>
       </c>
       <c r="I45" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="J45" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K45" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L45" t="s">
         <v>92</v>
@@ -3434,13 +3453,13 @@
         <v>149</v>
       </c>
       <c r="I46" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J46" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K46" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L46" t="s">
         <v>150</v>
@@ -3472,13 +3491,13 @@
         <v>153</v>
       </c>
       <c r="I47" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J47" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K47" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L47" t="s">
         <v>154</v>
@@ -3510,13 +3529,13 @@
         <v>157</v>
       </c>
       <c r="I48" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J48" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K48" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L48" t="s">
         <v>158</v>
@@ -3548,13 +3567,13 @@
         <v>161</v>
       </c>
       <c r="I49" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="J49" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K49" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L49" t="s">
         <v>162</v>
@@ -3586,13 +3605,13 @@
         <v>165</v>
       </c>
       <c r="I50" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J50" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K50" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L50" t="s">
         <v>166</v>
@@ -3624,13 +3643,13 @@
         <v>168</v>
       </c>
       <c r="I51" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="J51" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K51" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L51" t="s">
         <v>166</v>
@@ -3688,22 +3707,34 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="E54" t="s">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="F54" t="s">
+        <v>271</v>
+      </c>
+      <c r="G54" t="s">
+        <v>272</v>
+      </c>
+      <c r="H54" t="s">
+        <v>273</v>
+      </c>
+      <c r="I54" t="s">
+        <v>274</v>
       </c>
       <c r="J54" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="K54" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L54" t="s">
         <v>14</v>
       </c>
       <c r="M54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3711,31 +3742,34 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="E55" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="F55" t="s">
-        <v>186</v>
+        <v>277</v>
+      </c>
+      <c r="G55" t="s">
+        <v>278</v>
       </c>
       <c r="J55" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="K55" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="L55" t="s">
         <v>14</v>
       </c>
       <c r="M55" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3743,7 +3777,7 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -3767,16 +3801,16 @@
         <v>175</v>
       </c>
       <c r="J56" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K56" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L56" t="s">
         <v>14</v>
       </c>
       <c r="M56" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3784,7 +3818,7 @@
         <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -3808,16 +3842,16 @@
         <v>175</v>
       </c>
       <c r="J57" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K57" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L57" t="s">
         <v>106</v>
       </c>
       <c r="M57" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3825,7 +3859,7 @@
         <v>131</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -3849,16 +3883,16 @@
         <v>175</v>
       </c>
       <c r="J58" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s">
         <v>106</v>
       </c>
       <c r="M58" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3866,7 +3900,7 @@
         <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C59" t="s">
         <v>148</v>
@@ -3890,16 +3924,16 @@
         <v>175</v>
       </c>
       <c r="J59" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K59" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L59" t="s">
         <v>106</v>
       </c>
       <c r="M59" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/final_inv.xlsx
+++ b/final_inv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\prins-il\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FD63FA-7E0F-404E-B24F-4BB291DEA1EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A1A371-1F58-4DF6-8EF3-831882FD6850}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37365" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="284">
   <si>
     <t>food_name</t>
   </si>
@@ -571,12 +571,6 @@
     <t>dietetic_duo_0.png</t>
   </si>
   <si>
-    <t>ש'ש'רכ</t>
-  </si>
-  <si>
-    <t>aaaaaשששש</t>
-  </si>
-  <si>
     <t>dietetic</t>
   </si>
   <si>
@@ -742,12 +736,6 @@
     <t>VitalCare סטרלייזד הוא אוכל יבש המותאם במיוחד לחתולים בוגרים מסורסים או חתולות מעוקרות. כמות גבוהה של סיבים תזונתיים מבטיחים סיפוק ותחושת סובע אצל החתול שלכם כדי לשמור על משקל בריא.</t>
   </si>
   <si>
-    <t>אוכל דיאטטי יבש וטבעי וחתולים עם עודף משקל או סכרתיים</t>
-  </si>
-  <si>
-    <t>אוכל דיאטטי חתולים עם עודף משקל או חתולים הסובלים מסכרת.</t>
-  </si>
-  <si>
     <t>VitalCare דיאטטי לירידה במשקל הוא אוכל יבש אשר פותח במיוחד בשביל כלבים עם עודף משקל או חתולים הסובלים מסכרת. האוכל הדיאטטי הזה עוזר לחתול שלכם לרדת במשקל באופן אחרי ומתון וגם תומך באיזון רמת הסוכר בדם. איזון של ויטמינים ומינרלים אשר מספק לחתול את הערכים שהוא צריך גם בזמן הירידה במשקל. כמות גבוהה של סיבים תזונתיים עוזרת להפחית את תחושת הרעב של החתול ולשמור שתמיד יהיה שבע.</t>
   </si>
   <si>
@@ -857,6 +845,33 @@
   </si>
   <si>
     <t>מתאים מאוד ל"זללנים"</t>
+  </si>
+  <si>
+    <t>אוכל דיאטטי יבש וטבעי לחתולים עם עודף משקל או סכרתיים</t>
+  </si>
+  <si>
+    <t>אוכל דיאטטי לחתולים עם עודף משקל או חתולים הסובלים מסכרת.</t>
+  </si>
+  <si>
+    <t>מתעכל בקלות רבה!</t>
+  </si>
+  <si>
+    <t>רק חומרים טבעיים וללא תוספי טעם/ריח.</t>
+  </si>
+  <si>
+    <t>אוכל מומלץ ובטוח לשימוש במשך תקופות ארוכות.</t>
+  </si>
+  <si>
+    <t>פותח ביחד עם וטרינרים.</t>
+  </si>
+  <si>
+    <t>סדרה הכוללת אוכל דיאטטי ואוכל רפואי באיכות הגבוהה ביותר המיועדת לכל סוגי הכלבים אשר סובלים מבעיות רפואיות ו/או בעיות עודף משקל.  קיים גם אוכל יבש וגם אוכל רטוב.</t>
+  </si>
+  <si>
+    <t>סדרת דיאטטיק של פרינס מכילה מזון יבש או רטוב לכלבים בכל הגילאים אשר סובלים מבעיות רפואיות או בעיות של עודף משקל. סדרה זאת פותחה ביחד עם וטרינרים ומדענים ומכילה אוכל איכותי ביותר וקל לעיכול.  סדרה זאת מומלצת אם כלבכם סובל מעודף משקל, סכרת, בעיות שרירים/מפרקים, בעיות עור/פרווה, בעיות עיכול או בעיות רפואיות נוספות.</t>
+  </si>
+  <si>
+    <t>אחוז הצלחה גבוה עם כלבים בררנים אשר לא אוכלים כל אוכל.</t>
   </si>
 </sst>
 </file>
@@ -1699,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,7 +1799,7 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -1898,7 +1913,7 @@
         <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
@@ -1936,7 +1951,7 @@
         <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -1974,7 +1989,7 @@
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K7" t="s">
         <v>50</v>
@@ -2009,13 +2024,13 @@
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L8" t="s">
         <v>56</v>
@@ -2047,13 +2062,13 @@
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L9" t="s">
         <v>56</v>
@@ -2085,13 +2100,13 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -2123,10 +2138,10 @@
         <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K11" t="s">
         <v>65</v>
@@ -2161,10 +2176,10 @@
         <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K12" t="s">
         <v>65</v>
@@ -2199,13 +2214,13 @@
         <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L13" t="s">
         <v>71</v>
@@ -2237,13 +2252,13 @@
         <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L14" t="s">
         <v>71</v>
@@ -2275,13 +2290,13 @@
         <v>75</v>
       </c>
       <c r="I15" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" t="s">
+        <v>214</v>
+      </c>
+      <c r="K15" t="s">
         <v>200</v>
-      </c>
-      <c r="J15" t="s">
-        <v>216</v>
-      </c>
-      <c r="K15" t="s">
-        <v>202</v>
       </c>
       <c r="L15" t="s">
         <v>76</v>
@@ -2313,13 +2328,13 @@
         <v>75</v>
       </c>
       <c r="I16" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" t="s">
+        <v>214</v>
+      </c>
+      <c r="K16" t="s">
         <v>200</v>
-      </c>
-      <c r="J16" t="s">
-        <v>216</v>
-      </c>
-      <c r="K16" t="s">
-        <v>202</v>
       </c>
       <c r="L16" t="s">
         <v>76</v>
@@ -2351,13 +2366,13 @@
         <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L17" t="s">
         <v>82</v>
@@ -2389,13 +2404,13 @@
         <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s">
         <v>82</v>
@@ -2427,13 +2442,13 @@
         <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
         <v>87</v>
@@ -2465,13 +2480,13 @@
         <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
         <v>87</v>
@@ -2503,13 +2518,13 @@
         <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
         <v>92</v>
@@ -2541,13 +2556,13 @@
         <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
         <v>92</v>
@@ -2579,13 +2594,13 @@
         <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
         <v>97</v>
@@ -2617,13 +2632,13 @@
         <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
         <v>97</v>
@@ -2655,13 +2670,13 @@
         <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s">
         <v>102</v>
@@ -2693,13 +2708,13 @@
         <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s">
         <v>102</v>
@@ -2731,13 +2746,13 @@
         <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
         <v>109</v>
@@ -2769,13 +2784,13 @@
         <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
         <v>109</v>
@@ -2807,13 +2822,13 @@
         <v>112</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
         <v>228</v>
-      </c>
-      <c r="K29" t="s">
-        <v>230</v>
       </c>
       <c r="L29" t="s">
         <v>61</v>
@@ -2845,13 +2860,13 @@
         <v>112</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J30" t="s">
+        <v>226</v>
+      </c>
+      <c r="K30" t="s">
         <v>228</v>
-      </c>
-      <c r="K30" t="s">
-        <v>230</v>
       </c>
       <c r="L30" t="s">
         <v>61</v>
@@ -2883,13 +2898,13 @@
         <v>116</v>
       </c>
       <c r="I31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" t="s">
         <v>231</v>
-      </c>
-      <c r="J31" t="s">
-        <v>232</v>
-      </c>
-      <c r="K31" t="s">
-        <v>233</v>
       </c>
       <c r="L31" t="s">
         <v>117</v>
@@ -2921,13 +2936,13 @@
         <v>116</v>
       </c>
       <c r="I32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" t="s">
         <v>231</v>
-      </c>
-      <c r="J32" t="s">
-        <v>232</v>
-      </c>
-      <c r="K32" t="s">
-        <v>233</v>
       </c>
       <c r="L32" t="s">
         <v>117</v>
@@ -2959,13 +2974,13 @@
         <v>121</v>
       </c>
       <c r="I33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" t="s">
         <v>234</v>
-      </c>
-      <c r="J33" t="s">
-        <v>235</v>
-      </c>
-      <c r="K33" t="s">
-        <v>236</v>
       </c>
       <c r="L33" t="s">
         <v>122</v>
@@ -2997,13 +3012,13 @@
         <v>121</v>
       </c>
       <c r="I34" t="s">
+        <v>232</v>
+      </c>
+      <c r="J34" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" t="s">
         <v>234</v>
-      </c>
-      <c r="J34" t="s">
-        <v>235</v>
-      </c>
-      <c r="K34" t="s">
-        <v>236</v>
       </c>
       <c r="L34" t="s">
         <v>122</v>
@@ -3035,13 +3050,13 @@
         <v>121</v>
       </c>
       <c r="I35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" t="s">
         <v>234</v>
-      </c>
-      <c r="J35" t="s">
-        <v>235</v>
-      </c>
-      <c r="K35" t="s">
-        <v>236</v>
       </c>
       <c r="L35" t="s">
         <v>122</v>
@@ -3073,13 +3088,13 @@
         <v>127</v>
       </c>
       <c r="I36" t="s">
+        <v>235</v>
+      </c>
+      <c r="J36" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" t="s">
         <v>237</v>
-      </c>
-      <c r="J36" t="s">
-        <v>238</v>
-      </c>
-      <c r="K36" t="s">
-        <v>239</v>
       </c>
       <c r="L36" t="s">
         <v>128</v>
@@ -3111,13 +3126,13 @@
         <v>127</v>
       </c>
       <c r="I37" t="s">
+        <v>235</v>
+      </c>
+      <c r="J37" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" t="s">
         <v>237</v>
-      </c>
-      <c r="J37" t="s">
-        <v>238</v>
-      </c>
-      <c r="K37" t="s">
-        <v>239</v>
       </c>
       <c r="L37" t="s">
         <v>128</v>
@@ -3149,13 +3164,13 @@
         <v>132</v>
       </c>
       <c r="I38" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="J38" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="K38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s">
         <v>82</v>
@@ -3187,13 +3202,13 @@
         <v>132</v>
       </c>
       <c r="I39" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="J39" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="K39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s">
         <v>82</v>
@@ -3225,13 +3240,13 @@
         <v>136</v>
       </c>
       <c r="I40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J40" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s">
         <v>137</v>
@@ -3263,13 +3278,13 @@
         <v>136</v>
       </c>
       <c r="I41" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K41" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L41" t="s">
         <v>137</v>
@@ -3301,13 +3316,13 @@
         <v>140</v>
       </c>
       <c r="I42" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J42" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K42" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L42" t="s">
         <v>97</v>
@@ -3339,13 +3354,13 @@
         <v>140</v>
       </c>
       <c r="I43" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J43" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K43" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L43" t="s">
         <v>97</v>
@@ -3377,13 +3392,13 @@
         <v>143</v>
       </c>
       <c r="I44" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J44" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K44" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L44" t="s">
         <v>92</v>
@@ -3415,13 +3430,13 @@
         <v>143</v>
       </c>
       <c r="I45" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J45" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K45" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L45" t="s">
         <v>92</v>
@@ -3453,13 +3468,13 @@
         <v>149</v>
       </c>
       <c r="I46" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J46" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K46" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L46" t="s">
         <v>150</v>
@@ -3491,13 +3506,13 @@
         <v>153</v>
       </c>
       <c r="I47" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J47" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K47" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L47" t="s">
         <v>154</v>
@@ -3529,13 +3544,13 @@
         <v>157</v>
       </c>
       <c r="I48" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J48" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K48" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L48" t="s">
         <v>158</v>
@@ -3567,13 +3582,13 @@
         <v>161</v>
       </c>
       <c r="I49" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J49" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K49" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L49" t="s">
         <v>162</v>
@@ -3605,13 +3620,13 @@
         <v>165</v>
       </c>
       <c r="I50" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J50" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K50" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L50" t="s">
         <v>166</v>
@@ -3643,13 +3658,13 @@
         <v>168</v>
       </c>
       <c r="I51" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J51" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K51" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L51" t="s">
         <v>166</v>
@@ -3707,28 +3722,28 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54" t="s">
+        <v>267</v>
+      </c>
+      <c r="G54" t="s">
+        <v>268</v>
+      </c>
+      <c r="H54" t="s">
         <v>269</v>
       </c>
-      <c r="E54" t="s">
+      <c r="I54" t="s">
         <v>270</v>
       </c>
-      <c r="F54" t="s">
-        <v>271</v>
-      </c>
-      <c r="G54" t="s">
-        <v>272</v>
-      </c>
-      <c r="H54" t="s">
-        <v>273</v>
-      </c>
-      <c r="I54" t="s">
-        <v>274</v>
-      </c>
       <c r="J54" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L54" t="s">
         <v>14</v>
@@ -3748,22 +3763,22 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E55" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F55" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G55" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J55" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K55" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L55" t="s">
         <v>14</v>
@@ -3783,34 +3798,34 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="F56" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="G56" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="H56" t="s">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="I56" t="s">
         <v>175</v>
       </c>
       <c r="J56" t="s">
-        <v>183</v>
+        <v>281</v>
       </c>
       <c r="K56" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
       <c r="L56" t="s">
         <v>14</v>
       </c>
       <c r="M56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3818,7 +3833,7 @@
         <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -3842,16 +3857,16 @@
         <v>175</v>
       </c>
       <c r="J57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K57" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L57" t="s">
         <v>106</v>
       </c>
       <c r="M57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3859,7 +3874,7 @@
         <v>131</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -3883,16 +3898,16 @@
         <v>175</v>
       </c>
       <c r="J58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L58" t="s">
         <v>106</v>
       </c>
       <c r="M58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3900,7 +3915,7 @@
         <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
         <v>148</v>
@@ -3924,16 +3939,16 @@
         <v>175</v>
       </c>
       <c r="J59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L59" t="s">
         <v>106</v>
       </c>
       <c r="M59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/final_inv.xlsx
+++ b/final_inv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\prins-il\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A1A371-1F58-4DF6-8EF3-831882FD6850}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BF1C59-8BAC-4A0A-AADE-8E0C4E7EE126}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37365" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="286">
   <si>
     <t>food_name</t>
   </si>
@@ -872,6 +872,12 @@
   </si>
   <si>
     <t>אחוז הצלחה גבוה עם כלבים בררנים אשר לא אוכלים כל אוכל.</t>
+  </si>
+  <si>
+    <t>סידרת אוכל לחתול הביתי מגוונת וטעימה במיוחד. בחרו ממגוון סוגים של אוכל את האוכל אשר מתאים לחתול שלכם, אוכל טבעי ואיכותי. מאוד מתאים לחתולים שלא אוכלים כל דבר.</t>
+  </si>
+  <si>
+    <t>פרינס פיתחה מגוון רחב של מוצרים ושילבנו אותו בליין אוכל אחד כדי שתוכלו למצוא אוכל אשר מתאים בדיוק לחתול שלכם. אוכל איכותי עם מרכיבי פרימיום אשר יגרמו גם לחתולים הבררנים ביותר לאכול! כל המוצרים בסדרה זאת עוזרים למנוע אבנים בדרכי השתן וכל המוצרים מלבד מזון הגורים מכילים נוסחה נגד כדורי שיער.</t>
   </si>
 </sst>
 </file>
@@ -1714,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3857,10 +3863,10 @@
         <v>175</v>
       </c>
       <c r="J57" t="s">
-        <v>185</v>
+        <v>284</v>
       </c>
       <c r="K57" t="s">
-        <v>186</v>
+        <v>285</v>
       </c>
       <c r="L57" t="s">
         <v>106</v>

--- a/final_inv.xlsx
+++ b/final_inv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\prins-il\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BF1C59-8BAC-4A0A-AADE-8E0C4E7EE126}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284E2773-37AB-45AD-B79E-EAB36BF5F6E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37365" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="292">
   <si>
     <t>food_name</t>
   </si>
@@ -878,6 +878,24 @@
   </si>
   <si>
     <t>פרינס פיתחה מגוון רחב של מוצרים ושילבנו אותו בליין אוכל אחד כדי שתוכלו למצוא אוכל אשר מתאים בדיוק לחתול שלכם. אוכל איכותי עם מרכיבי פרימיום אשר יגרמו גם לחתולים הבררנים ביותר לאכול! כל המוצרים בסדרה זאת עוזרים למנוע אבנים בדרכי השתן וכל המוצרים מלבד מזון הגורים מכילים נוסחה נגד כדורי שיער.</t>
+  </si>
+  <si>
+    <t>בטוח ומומלץ לשימוש לטווח ארוך.</t>
+  </si>
+  <si>
+    <t>פותח בשיתוף פעולה עם וטרינרים.</t>
+  </si>
+  <si>
+    <t>אוכל מלא המספק את כל הערכים התזונתיים שהחתול שלכם צריך.</t>
+  </si>
+  <si>
+    <t>טעים מאוד ומתעכל בקלות.</t>
+  </si>
+  <si>
+    <t>100% רכיבים טבעיים ללא תוספים מלאכותיים.</t>
+  </si>
+  <si>
+    <t>זמין גם כאוכל יבש וגם כאוכל רטוב.</t>
   </si>
 </sst>
 </file>
@@ -1720,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3845,22 +3863,22 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="F57" t="s">
-        <v>172</v>
+        <v>286</v>
       </c>
       <c r="G57" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="H57" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="I57" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="J57" t="s">
         <v>284</v>

--- a/final_inv.xlsx
+++ b/final_inv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\prins-il\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284E2773-37AB-45AD-B79E-EAB36BF5F6E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4811F004-1BA9-4D17-B6C4-DC1962C35B23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37365" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="299">
   <si>
     <t>food_name</t>
   </si>
@@ -896,6 +896,27 @@
   </si>
   <si>
     <t>זמין גם כאוכל יבש וגם כאוכל רטוב.</t>
+  </si>
+  <si>
+    <t>סידרת אוכל לחתולים הכוללת אוכל דיאטטי ורפואי באיכות הגבוהה ביותר.  מיועד לכל סוגי החתולים אשר סובלים מעודף משקל או בעיות רפואיות כמו סכרת, בעיות עור, בעיות עיכול או מעיים, כשלים בכליות ועוד.</t>
+  </si>
+  <si>
+    <t>סידרת דיאטטיק של פרינס נועדה במיוחד בשביל חתולים הסובלים מבעיות רפואיות שונות או עודף משקל. סידרה זאת פותחה ביחד עם וטרינרים ומדענים באופן צמוד על מנת שנוכל להכין את האוכל הכי בריא בשביל החיה שלכם! האוכל בסידרה זאת עשוי מהרכיבים האיכותיים ביותר ובטוח ומומלץ לשימוש לטווח ארוך אם חתולכם סובל מסכרת, בעיות עיכול או מעיים, בעיות עור, כשל בכליות ועוד.</t>
+  </si>
+  <si>
+    <t>פותח ביחד עם וטרינרים, מדענים ואוניברסיטאות.</t>
+  </si>
+  <si>
+    <t>אוכל טעים המתאים מאוד לחתולים בררנים.</t>
+  </si>
+  <si>
+    <t>מתאים ומומלץ לשימוש לטווח ארוך.</t>
+  </si>
+  <si>
+    <t>רק מרכיבים ותוספים טבעיים.</t>
+  </si>
+  <si>
+    <t>ללא חיטה (גלוטן).</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
       <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
@@ -3904,28 +3925,28 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="F58" t="s">
-        <v>172</v>
+        <v>296</v>
       </c>
       <c r="G58" t="s">
-        <v>173</v>
+        <v>297</v>
       </c>
       <c r="H58" t="s">
-        <v>174</v>
+        <v>298</v>
       </c>
       <c r="I58" t="s">
         <v>175</v>
       </c>
       <c r="J58" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="K58" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="L58" t="s">
         <v>106</v>

--- a/final_inv.xlsx
+++ b/final_inv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\prins-il\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4811F004-1BA9-4D17-B6C4-DC1962C35B23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD37DFC-9EFF-4A6F-B0A0-05682FFFBD7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37365" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="305">
   <si>
     <t>food_name</t>
   </si>
@@ -577,12 +577,6 @@
     <t>VitalCare-DUO_0.png</t>
   </si>
   <si>
-    <t>Desc1</t>
-  </si>
-  <si>
-    <t>Desc2</t>
-  </si>
-  <si>
     <t>vitalcare</t>
   </si>
   <si>
@@ -917,6 +911,30 @@
   </si>
   <si>
     <t>ללא חיטה (גלוטן).</t>
+  </si>
+  <si>
+    <t>פרינס NatureCare לחתולים, ארוחה 100% טבעית מבוססת בשר, זמינה בפחיות. ארוחה מלאה בריאה ומבוססת בשר בנוסף לרכיבים נוספים התומכים בבריאות החתול הופכים אוכל זה לצ'ופר שהוא גם בריא וגם טעים.</t>
+  </si>
+  <si>
+    <t>פרינס NatureCare סידרת אוכל רטוב לחתולים המשמשת גם כארוחה מלאה! סידרה זאת היא נטולת דגנים וכל סוגי האוכל מכילים מרכיבים חשובים ובריאים כדי לשמור על חתולכם בריא וחזק. חתולים מאוד מעריכים את מבנה האוכל שהם אוכלים ואחרי נסיונות רבים כל האוכל הרטוב שלנו מגיע בצורה דומה לבשר טחון שהחתולים אוהבים מאוד! אוכל המתאים כארוחה יחידה אך מומלץ לתת עם אחד מסוגי האוכל היבש שלנו.</t>
+  </si>
+  <si>
+    <t>אידאלי כדי לגוון ביחד עם הדיאטה הקיימת.</t>
+  </si>
+  <si>
+    <t>100% טבעי ומבוסס בשר.</t>
+  </si>
+  <si>
+    <t>ללא דגנים.</t>
+  </si>
+  <si>
+    <t>מכיל אינולין על מנת לתמוך במערכת עיקול בריאה.</t>
+  </si>
+  <si>
+    <t>כמות כבוהה של אומגה 3 לפרווה מבריקה.</t>
+  </si>
+  <si>
+    <t>אפשר לאחסן ללא קירור, אם לא נפתח.</t>
   </si>
 </sst>
 </file>
@@ -1759,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1862,7 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -1958,7 +1976,7 @@
         <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
@@ -1996,7 +2014,7 @@
         <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -2034,7 +2052,7 @@
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K7" t="s">
         <v>50</v>
@@ -2069,13 +2087,13 @@
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L8" t="s">
         <v>56</v>
@@ -2107,13 +2125,13 @@
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L9" t="s">
         <v>56</v>
@@ -2145,13 +2163,13 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -2183,10 +2201,10 @@
         <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K11" t="s">
         <v>65</v>
@@ -2221,10 +2239,10 @@
         <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K12" t="s">
         <v>65</v>
@@ -2259,13 +2277,13 @@
         <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L13" t="s">
         <v>71</v>
@@ -2297,13 +2315,13 @@
         <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L14" t="s">
         <v>71</v>
@@ -2335,13 +2353,13 @@
         <v>75</v>
       </c>
       <c r="I15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J15" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" t="s">
         <v>198</v>
-      </c>
-      <c r="J15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K15" t="s">
-        <v>200</v>
       </c>
       <c r="L15" t="s">
         <v>76</v>
@@ -2373,13 +2391,13 @@
         <v>75</v>
       </c>
       <c r="I16" t="s">
+        <v>196</v>
+      </c>
+      <c r="J16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" t="s">
         <v>198</v>
-      </c>
-      <c r="J16" t="s">
-        <v>214</v>
-      </c>
-      <c r="K16" t="s">
-        <v>200</v>
       </c>
       <c r="L16" t="s">
         <v>76</v>
@@ -2411,13 +2429,13 @@
         <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L17" t="s">
         <v>82</v>
@@ -2449,13 +2467,13 @@
         <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s">
         <v>82</v>
@@ -2487,13 +2505,13 @@
         <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
         <v>87</v>
@@ -2525,13 +2543,13 @@
         <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s">
         <v>87</v>
@@ -2563,13 +2581,13 @@
         <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
         <v>92</v>
@@ -2601,13 +2619,13 @@
         <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
         <v>92</v>
@@ -2639,13 +2657,13 @@
         <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
         <v>97</v>
@@ -2677,13 +2695,13 @@
         <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
         <v>97</v>
@@ -2715,13 +2733,13 @@
         <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s">
         <v>102</v>
@@ -2753,13 +2771,13 @@
         <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s">
         <v>102</v>
@@ -2791,13 +2809,13 @@
         <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s">
         <v>109</v>
@@ -2829,13 +2847,13 @@
         <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s">
         <v>109</v>
@@ -2867,13 +2885,13 @@
         <v>112</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
         <v>226</v>
-      </c>
-      <c r="K29" t="s">
-        <v>228</v>
       </c>
       <c r="L29" t="s">
         <v>61</v>
@@ -2905,13 +2923,13 @@
         <v>112</v>
       </c>
       <c r="I30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J30" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" t="s">
         <v>226</v>
-      </c>
-      <c r="K30" t="s">
-        <v>228</v>
       </c>
       <c r="L30" t="s">
         <v>61</v>
@@ -2943,13 +2961,13 @@
         <v>116</v>
       </c>
       <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
         <v>229</v>
-      </c>
-      <c r="J31" t="s">
-        <v>230</v>
-      </c>
-      <c r="K31" t="s">
-        <v>231</v>
       </c>
       <c r="L31" t="s">
         <v>117</v>
@@ -2981,13 +2999,13 @@
         <v>116</v>
       </c>
       <c r="I32" t="s">
+        <v>227</v>
+      </c>
+      <c r="J32" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" t="s">
         <v>229</v>
-      </c>
-      <c r="J32" t="s">
-        <v>230</v>
-      </c>
-      <c r="K32" t="s">
-        <v>231</v>
       </c>
       <c r="L32" t="s">
         <v>117</v>
@@ -3019,13 +3037,13 @@
         <v>121</v>
       </c>
       <c r="I33" t="s">
+        <v>230</v>
+      </c>
+      <c r="J33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K33" t="s">
         <v>232</v>
-      </c>
-      <c r="J33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K33" t="s">
-        <v>234</v>
       </c>
       <c r="L33" t="s">
         <v>122</v>
@@ -3057,13 +3075,13 @@
         <v>121</v>
       </c>
       <c r="I34" t="s">
+        <v>230</v>
+      </c>
+      <c r="J34" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" t="s">
         <v>232</v>
-      </c>
-      <c r="J34" t="s">
-        <v>233</v>
-      </c>
-      <c r="K34" t="s">
-        <v>234</v>
       </c>
       <c r="L34" t="s">
         <v>122</v>
@@ -3095,13 +3113,13 @@
         <v>121</v>
       </c>
       <c r="I35" t="s">
+        <v>230</v>
+      </c>
+      <c r="J35" t="s">
+        <v>231</v>
+      </c>
+      <c r="K35" t="s">
         <v>232</v>
-      </c>
-      <c r="J35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K35" t="s">
-        <v>234</v>
       </c>
       <c r="L35" t="s">
         <v>122</v>
@@ -3133,13 +3151,13 @@
         <v>127</v>
       </c>
       <c r="I36" t="s">
+        <v>233</v>
+      </c>
+      <c r="J36" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" t="s">
         <v>235</v>
-      </c>
-      <c r="J36" t="s">
-        <v>236</v>
-      </c>
-      <c r="K36" t="s">
-        <v>237</v>
       </c>
       <c r="L36" t="s">
         <v>128</v>
@@ -3171,13 +3189,13 @@
         <v>127</v>
       </c>
       <c r="I37" t="s">
+        <v>233</v>
+      </c>
+      <c r="J37" t="s">
+        <v>234</v>
+      </c>
+      <c r="K37" t="s">
         <v>235</v>
-      </c>
-      <c r="J37" t="s">
-        <v>236</v>
-      </c>
-      <c r="K37" t="s">
-        <v>237</v>
       </c>
       <c r="L37" t="s">
         <v>128</v>
@@ -3209,13 +3227,13 @@
         <v>132</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s">
         <v>82</v>
@@ -3247,13 +3265,13 @@
         <v>132</v>
       </c>
       <c r="I39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L39" t="s">
         <v>82</v>
@@ -3285,13 +3303,13 @@
         <v>136</v>
       </c>
       <c r="I40" t="s">
+        <v>237</v>
+      </c>
+      <c r="J40" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" t="s">
         <v>239</v>
-      </c>
-      <c r="J40" t="s">
-        <v>240</v>
-      </c>
-      <c r="K40" t="s">
-        <v>241</v>
       </c>
       <c r="L40" t="s">
         <v>137</v>
@@ -3323,13 +3341,13 @@
         <v>136</v>
       </c>
       <c r="I41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J41" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" t="s">
         <v>239</v>
-      </c>
-      <c r="J41" t="s">
-        <v>240</v>
-      </c>
-      <c r="K41" t="s">
-        <v>241</v>
       </c>
       <c r="L41" t="s">
         <v>137</v>
@@ -3361,13 +3379,13 @@
         <v>140</v>
       </c>
       <c r="I42" t="s">
+        <v>240</v>
+      </c>
+      <c r="J42" t="s">
+        <v>241</v>
+      </c>
+      <c r="K42" t="s">
         <v>242</v>
-      </c>
-      <c r="J42" t="s">
-        <v>243</v>
-      </c>
-      <c r="K42" t="s">
-        <v>244</v>
       </c>
       <c r="L42" t="s">
         <v>97</v>
@@ -3399,13 +3417,13 @@
         <v>140</v>
       </c>
       <c r="I43" t="s">
+        <v>240</v>
+      </c>
+      <c r="J43" t="s">
+        <v>241</v>
+      </c>
+      <c r="K43" t="s">
         <v>242</v>
-      </c>
-      <c r="J43" t="s">
-        <v>243</v>
-      </c>
-      <c r="K43" t="s">
-        <v>244</v>
       </c>
       <c r="L43" t="s">
         <v>97</v>
@@ -3437,13 +3455,13 @@
         <v>143</v>
       </c>
       <c r="I44" t="s">
+        <v>243</v>
+      </c>
+      <c r="J44" t="s">
+        <v>244</v>
+      </c>
+      <c r="K44" t="s">
         <v>245</v>
-      </c>
-      <c r="J44" t="s">
-        <v>246</v>
-      </c>
-      <c r="K44" t="s">
-        <v>247</v>
       </c>
       <c r="L44" t="s">
         <v>92</v>
@@ -3475,13 +3493,13 @@
         <v>143</v>
       </c>
       <c r="I45" t="s">
+        <v>243</v>
+      </c>
+      <c r="J45" t="s">
+        <v>244</v>
+      </c>
+      <c r="K45" t="s">
         <v>245</v>
-      </c>
-      <c r="J45" t="s">
-        <v>246</v>
-      </c>
-      <c r="K45" t="s">
-        <v>247</v>
       </c>
       <c r="L45" t="s">
         <v>92</v>
@@ -3513,13 +3531,13 @@
         <v>149</v>
       </c>
       <c r="I46" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J46" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L46" t="s">
         <v>150</v>
@@ -3551,13 +3569,13 @@
         <v>153</v>
       </c>
       <c r="I47" t="s">
+        <v>246</v>
+      </c>
+      <c r="J47" t="s">
+        <v>252</v>
+      </c>
+      <c r="K47" t="s">
         <v>248</v>
-      </c>
-      <c r="J47" t="s">
-        <v>254</v>
-      </c>
-      <c r="K47" t="s">
-        <v>250</v>
       </c>
       <c r="L47" t="s">
         <v>154</v>
@@ -3589,13 +3607,13 @@
         <v>157</v>
       </c>
       <c r="I48" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L48" t="s">
         <v>158</v>
@@ -3627,13 +3645,13 @@
         <v>161</v>
       </c>
       <c r="I49" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J49" t="s">
+        <v>254</v>
+      </c>
+      <c r="K49" t="s">
         <v>256</v>
-      </c>
-      <c r="K49" t="s">
-        <v>258</v>
       </c>
       <c r="L49" t="s">
         <v>162</v>
@@ -3665,13 +3683,13 @@
         <v>165</v>
       </c>
       <c r="I50" t="s">
+        <v>257</v>
+      </c>
+      <c r="J50" t="s">
+        <v>258</v>
+      </c>
+      <c r="K50" t="s">
         <v>259</v>
-      </c>
-      <c r="J50" t="s">
-        <v>260</v>
-      </c>
-      <c r="K50" t="s">
-        <v>261</v>
       </c>
       <c r="L50" t="s">
         <v>166</v>
@@ -3703,13 +3721,13 @@
         <v>168</v>
       </c>
       <c r="I51" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J51" t="s">
+        <v>251</v>
+      </c>
+      <c r="K51" t="s">
         <v>253</v>
-      </c>
-      <c r="K51" t="s">
-        <v>255</v>
       </c>
       <c r="L51" t="s">
         <v>166</v>
@@ -3767,28 +3785,28 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" t="s">
+        <v>264</v>
+      </c>
+      <c r="F54" t="s">
         <v>265</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>266</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>267</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
         <v>268</v>
       </c>
-      <c r="H54" t="s">
-        <v>269</v>
-      </c>
-      <c r="I54" t="s">
-        <v>270</v>
-      </c>
       <c r="J54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L54" t="s">
         <v>14</v>
@@ -3808,22 +3826,22 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
+        <v>270</v>
+      </c>
+      <c r="E55" t="s">
+        <v>269</v>
+      </c>
+      <c r="F55" t="s">
+        <v>271</v>
+      </c>
+      <c r="G55" t="s">
         <v>272</v>
       </c>
-      <c r="E55" t="s">
-        <v>271</v>
-      </c>
-      <c r="F55" t="s">
-        <v>273</v>
-      </c>
-      <c r="G55" t="s">
-        <v>274</v>
-      </c>
       <c r="J55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K55" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L55" t="s">
         <v>14</v>
@@ -3843,28 +3861,28 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56" t="s">
         <v>277</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
+        <v>281</v>
+      </c>
+      <c r="H56" t="s">
         <v>278</v>
-      </c>
-      <c r="F56" t="s">
-        <v>279</v>
-      </c>
-      <c r="G56" t="s">
-        <v>283</v>
-      </c>
-      <c r="H56" t="s">
-        <v>280</v>
       </c>
       <c r="I56" t="s">
         <v>175</v>
       </c>
       <c r="J56" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K56" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L56" t="s">
         <v>14</v>
@@ -3884,34 +3902,34 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
+        <v>286</v>
+      </c>
+      <c r="E57" t="s">
+        <v>285</v>
+      </c>
+      <c r="F57" t="s">
+        <v>284</v>
+      </c>
+      <c r="G57" t="s">
+        <v>287</v>
+      </c>
+      <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="E57" t="s">
-        <v>287</v>
-      </c>
-      <c r="F57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
         <v>289</v>
       </c>
-      <c r="H57" t="s">
-        <v>290</v>
-      </c>
-      <c r="I57" t="s">
-        <v>291</v>
-      </c>
       <c r="J57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L57" t="s">
         <v>106</v>
       </c>
       <c r="M57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3919,40 +3937,37 @@
         <v>131</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
       </c>
       <c r="D58" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" t="s">
         <v>294</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>295</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>296</v>
       </c>
-      <c r="G58" t="s">
-        <v>297</v>
-      </c>
-      <c r="H58" t="s">
-        <v>298</v>
-      </c>
-      <c r="I58" t="s">
-        <v>175</v>
-      </c>
       <c r="J58" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K58" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L58" t="s">
         <v>106</v>
       </c>
       <c r="M58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3960,40 +3975,40 @@
         <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
         <v>148</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>299</v>
       </c>
       <c r="F59" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="G59" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="H59" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="I59" t="s">
-        <v>175</v>
+        <v>304</v>
       </c>
       <c r="J59" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="K59" t="s">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="L59" t="s">
         <v>106</v>
       </c>
       <c r="M59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
